--- a/Altitude_Data.xlsx
+++ b/Altitude_Data.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bschapma/Desktop/multivis_tutorials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brettchapman/multivis_tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C45B652-36D3-AF48-9095-1FC1F9FD098A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625B92D4-FC69-9E48-B008-12C4C6B729AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="4780" windowWidth="28180" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31240" yWindow="4840" windowWidth="28180" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="30" r:id="rId1"/>
+    <sheet name="Data" sheetId="31" r:id="rId1"/>
     <sheet name="Peak" sheetId="26" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="test" localSheetId="0">Data!$D$1:$AI$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +42,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{1DA38763-8A09-7640-AFCD-7B3F6D153803}" name="test" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{25C5FF57-CAE6-C34A-8BA6-9404F90D21BA}" name="test1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/bschapma/Desktop/multivis_tutorials/test.csv" comma="1">
       <textFields count="33">
         <textField/>
@@ -117,9 +126,6 @@
     <t>M31</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -352,6 +358,9 @@
   </si>
   <si>
     <t>Dratio</t>
+  </si>
+  <si>
+    <t>SampleID</t>
   </si>
 </sst>
 </file>
@@ -530,8 +539,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -663,7 +673,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="1" xr16:uid="{363C8BC3-6FCD-E14D-B257-C29FE622116A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="1" xr16:uid="{C5DD7BF8-2D8B-4E4D-A822-6C9CD60B40EB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -987,11 +997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA7F685-03EF-414C-8E1D-9E30AD6C07E6}">
-  <dimension ref="A1:AI30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529F3C3B-3324-9344-816C-1ABE49C131A5}">
+  <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,52 +1014,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>73</v>
-      </c>
-      <c r="N1" t="s">
-        <v>74</v>
       </c>
       <c r="O1" t="s">
         <v>5</v>
       </c>
       <c r="P1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" t="s">
         <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>76</v>
       </c>
       <c r="R1" t="s">
         <v>6</v>
@@ -1070,40 +1080,40 @@
         <v>11</v>
       </c>
       <c r="X1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>84</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>85</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>86</v>
       </c>
       <c r="AH1" t="s">
         <v>12</v>
       </c>
       <c r="AI1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
@@ -1111,10 +1121,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>11869.8857887555</v>
@@ -1218,10 +1228,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>6091.0323823229201</v>
@@ -1325,10 +1335,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>8304.8407619848604</v>
@@ -1432,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>5679.2457375160902</v>
@@ -1539,10 +1549,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>7927.7198797946603</v>
@@ -1646,10 +1656,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>4074.58048551617</v>
@@ -1753,10 +1763,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>7120.3331407403202</v>
@@ -1860,10 +1870,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>8103.2500657228102</v>
@@ -1967,10 +1977,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>8273.6931563426406</v>
@@ -2074,10 +2084,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>6690.53507370034</v>
@@ -2181,10 +2191,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>6969.8233109654502</v>
@@ -2288,10 +2298,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>9797.1040343132609</v>
@@ -2395,10 +2405,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>9484.2039704920098</v>
@@ -2502,10 +2512,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>16229.642390318701</v>
@@ -2609,10 +2619,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>11807.844770322999</v>
@@ -2716,10 +2726,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>7559.3263845527499</v>
@@ -2823,10 +2833,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>7816.5202569195699</v>
@@ -2930,10 +2940,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>27584.275841345101</v>
@@ -3037,10 +3047,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>12241.2155785431</v>
@@ -3144,10 +3154,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>10025.8810951707</v>
@@ -3251,10 +3261,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>10821.149778053201</v>
@@ -3358,10 +3368,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>18493.305987134401</v>
@@ -3465,10 +3475,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>5828.8437362488703</v>
@@ -3572,10 +3582,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>10857.3999389861</v>
@@ -3679,10 +3689,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>11698.3251844718</v>
@@ -3786,10 +3796,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>13740.4047316656</v>
@@ -3893,10 +3903,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <v>7500.6593113612898</v>
@@ -4000,10 +4010,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>7623.7246064719602</v>
@@ -4107,10 +4117,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>9199.7363080069408</v>
@@ -4208,6 +4218,17 @@
       <c r="AI30">
         <v>563993.21445715905</v>
       </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4218,7 +4239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ED688A-0485-5748-81A5-9B0073A9AB64}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -4238,7 +4259,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -4247,19 +4268,19 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -4267,13 +4288,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>173.08149359999999</v>
@@ -4302,13 +4323,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>448.30487950000003</v>
@@ -4337,13 +4358,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>229.14384799999999</v>
@@ -4372,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>117.0193225</v>
@@ -4407,13 +4428,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>191.01936699999999</v>
@@ -4442,13 +4463,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>89.025122030000006</v>
@@ -4477,13 +4498,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>219.07680909999999</v>
@@ -4512,13 +4533,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>464.29963240000001</v>
@@ -4547,13 +4568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>203.08215519999999</v>
@@ -4582,13 +4603,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>285.20572989999999</v>
@@ -4617,13 +4638,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>243.06125650000001</v>
@@ -4655,10 +4676,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>335.04801950000001</v>
@@ -4687,13 +4708,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>180.0662313</v>
@@ -4722,13 +4743,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>137.04639460000001</v>
@@ -4760,10 +4781,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>209.09273680000001</v>
@@ -4795,10 +4816,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>206.081515</v>
@@ -4830,10 +4851,10 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>281.24804990000001</v>
@@ -4865,10 +4886,10 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>265.11853830000001</v>
@@ -4900,10 +4921,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>150.05874420000001</v>
@@ -4935,10 +4956,10 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>116.0716384</v>
@@ -4967,13 +4988,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>176.0711015</v>
@@ -5002,13 +5023,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>269.12447550000002</v>
@@ -5037,13 +5058,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>244.15470250000001</v>
@@ -5072,13 +5093,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>175.02416550000001</v>
@@ -5107,13 +5128,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>166.0867342</v>
@@ -5142,13 +5163,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>268.10449970000002</v>
@@ -5177,13 +5198,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28">
         <v>286.2015687</v>
@@ -5212,13 +5233,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>239.1068731</v>
@@ -5247,13 +5268,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>363.217288</v>
@@ -5282,13 +5303,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>212.11847080000001</v>
@@ -5320,10 +5341,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>520.34001030000002</v>
@@ -5352,13 +5373,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>585.27056430000005</v>

--- a/Altitude_Data.xlsx
+++ b/Altitude_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brettchapman/multivis_tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625B92D4-FC69-9E48-B008-12C4C6B729AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9AFBBF-DF3A-0A42-9DE3-AB80BE936D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31240" yWindow="4840" windowWidth="28180" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31240" yWindow="4840" windowWidth="28180" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="31" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>Tiglylcarnitine</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortisol </t>
-  </si>
-  <si>
     <t>Hypoxanthine</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>SampleID</t>
+  </si>
+  <si>
+    <t>Cortisol</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529F3C3B-3324-9344-816C-1ABE49C131A5}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -1014,52 +1014,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>72</v>
-      </c>
-      <c r="N1" t="s">
-        <v>73</v>
       </c>
       <c r="O1" t="s">
         <v>5</v>
       </c>
       <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
         <v>74</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>75</v>
       </c>
       <c r="R1" t="s">
         <v>6</v>
@@ -1080,40 +1080,40 @@
         <v>11</v>
       </c>
       <c r="X1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>83</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>84</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>85</v>
       </c>
       <c r="AH1" t="s">
         <v>12</v>
       </c>
       <c r="AI1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
@@ -1121,10 +1121,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>11869.8857887555</v>
@@ -1228,10 +1228,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>6091.0323823229201</v>
@@ -1335,10 +1335,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>8304.8407619848604</v>
@@ -1442,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>5679.2457375160902</v>
@@ -1549,10 +1549,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>7927.7198797946603</v>
@@ -1656,10 +1656,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>4074.58048551617</v>
@@ -1763,10 +1763,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>7120.3331407403202</v>
@@ -1870,10 +1870,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>8103.2500657228102</v>
@@ -1977,10 +1977,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>8273.6931563426406</v>
@@ -2084,10 +2084,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>6690.53507370034</v>
@@ -2191,10 +2191,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>6969.8233109654502</v>
@@ -2298,10 +2298,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>9797.1040343132609</v>
@@ -2405,10 +2405,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>9484.2039704920098</v>
@@ -2512,10 +2512,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>16229.642390318701</v>
@@ -2619,10 +2619,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>11807.844770322999</v>
@@ -2726,10 +2726,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>7559.3263845527499</v>
@@ -2833,10 +2833,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>7816.5202569195699</v>
@@ -2940,10 +2940,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>27584.275841345101</v>
@@ -3047,10 +3047,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>12241.2155785431</v>
@@ -3154,10 +3154,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>10025.8810951707</v>
@@ -3261,10 +3261,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>10821.149778053201</v>
@@ -3368,10 +3368,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>18493.305987134401</v>
@@ -3475,10 +3475,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>5828.8437362488703</v>
@@ -3582,10 +3582,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>10857.3999389861</v>
@@ -3689,10 +3689,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>11698.3251844718</v>
@@ -3796,10 +3796,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>13740.4047316656</v>
@@ -3903,10 +3903,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>7500.6593113612898</v>
@@ -4010,10 +4010,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>7623.7246064719602</v>
@@ -4117,10 +4117,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>9199.7363080069408</v>
@@ -4239,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ED688A-0485-5748-81A5-9B0073A9AB64}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4259,7 +4259,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -4271,16 +4271,16 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -4288,13 +4288,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>173.08149359999999</v>
@@ -4323,13 +4323,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>448.30487950000003</v>
@@ -4358,13 +4358,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>229.14384799999999</v>
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>117.0193225</v>
@@ -4428,13 +4428,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>191.01936699999999</v>
@@ -4463,13 +4463,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>89.025122030000006</v>
@@ -4498,13 +4498,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>219.07680909999999</v>
@@ -4533,13 +4533,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>464.29963240000001</v>
@@ -4568,13 +4568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>203.08215519999999</v>
@@ -4603,13 +4603,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>285.20572989999999</v>
@@ -4638,13 +4638,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>243.06125650000001</v>
@@ -4676,10 +4676,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>335.04801950000001</v>
@@ -4708,13 +4708,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>180.0662313</v>
@@ -4743,13 +4743,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>137.04639460000001</v>
@@ -4781,10 +4781,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>209.09273680000001</v>
@@ -4816,10 +4816,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>206.081515</v>
@@ -4851,10 +4851,10 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>281.24804990000001</v>
@@ -4886,10 +4886,10 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>265.11853830000001</v>
@@ -4921,10 +4921,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>150.05874420000001</v>
@@ -4959,7 +4959,7 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>116.0716384</v>
@@ -4988,13 +4988,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>176.0711015</v>
@@ -5023,13 +5023,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>269.12447550000002</v>
@@ -5058,13 +5058,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>244.15470250000001</v>
@@ -5093,13 +5093,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>175.02416550000001</v>
@@ -5128,13 +5128,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>166.0867342</v>
@@ -5163,13 +5163,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>268.10449970000002</v>
@@ -5198,13 +5198,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>286.2015687</v>
@@ -5233,13 +5233,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <v>239.1068731</v>
@@ -5268,13 +5268,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30">
         <v>363.217288</v>
@@ -5303,13 +5303,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31">
         <v>212.11847080000001</v>
@@ -5341,10 +5341,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32">
         <v>520.34001030000002</v>
@@ -5373,13 +5373,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>585.27056430000005</v>
